--- a/MARS-QA1-Task2/Data/ExcelData1.xlsx
+++ b/MARS-QA1-Task2/Data/ExcelData1.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="46">
   <si>
     <t>Selenium</t>
   </si>
@@ -46,9 +46,6 @@
     <t>One-off service</t>
   </si>
   <si>
-    <t>On-site</t>
-  </si>
-  <si>
     <t>Mon</t>
   </si>
   <si>
@@ -61,9 +58,6 @@
     <t>Credit</t>
   </si>
   <si>
-    <t>Hidden</t>
-  </si>
-  <si>
     <t>Title</t>
   </si>
   <si>
@@ -140,6 +134,36 @@
   </si>
   <si>
     <t>lonna78</t>
+  </si>
+  <si>
+    <t>Online</t>
+  </si>
+  <si>
+    <t>Looking for Logo Design Website? If yes, then you are at the best website for graphic designing services. We can design a custom logo for you in as little as 24 hours</t>
+  </si>
+  <si>
+    <t>Affordable Logo Designs in New Zealand</t>
+  </si>
+  <si>
+    <t>Graphics &amp; Design</t>
+  </si>
+  <si>
+    <t>Logo Design</t>
+  </si>
+  <si>
+    <t>Design</t>
+  </si>
+  <si>
+    <t>Hour basis service</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>10/0802022</t>
+  </si>
+  <si>
+    <t>Logo 1</t>
   </si>
 </sst>
 </file>
@@ -150,7 +174,7 @@
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
     <numFmt numFmtId="165" formatCode="hh:mm:ss;@"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -165,6 +189,18 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="17"/>
+      <color rgb="FFC2292E"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -194,7 +230,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -203,6 +239,27 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="fill" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -484,14 +541,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="24.140625" customWidth="1"/>
+    <col min="2" max="2" width="51.28515625" customWidth="1"/>
     <col min="3" max="3" width="19.42578125" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
     <col min="5" max="5" width="17.28515625" customWidth="1"/>
@@ -499,56 +558,63 @@
     <col min="7" max="7" width="12.85546875" customWidth="1"/>
     <col min="8" max="8" width="16.7109375" customWidth="1"/>
     <col min="9" max="9" width="12.42578125" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" customWidth="1"/>
+    <col min="11" max="11" width="12.140625" customWidth="1"/>
+    <col min="12" max="12" width="11.85546875" customWidth="1"/>
+    <col min="13" max="13" width="20.140625" customWidth="1"/>
+    <col min="14" max="14" width="20.5703125" customWidth="1"/>
+    <col min="15" max="15" width="13.85546875" customWidth="1"/>
+    <col min="16" max="16" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="N1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="P1" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
@@ -571,16 +637,16 @@
         <v>5</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" s="4">
+        <v>44774</v>
+      </c>
+      <c r="I2" s="3">
+        <v>44797</v>
+      </c>
+      <c r="J2" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="H2" s="4">
-        <v>43567</v>
-      </c>
-      <c r="I2" s="3">
-        <v>43597</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>7</v>
       </c>
       <c r="K2" s="5">
         <v>0.75</v>
@@ -589,20 +655,74 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="M2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="O2" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="P2" s="1" t="s">
-        <v>11</v>
-      </c>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="I3" s="12">
+        <v>44799</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="K3" s="13">
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="L3" s="14">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="N3" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="O3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="P3" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="21.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -622,18 +742,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
         <v>26</v>
-      </c>
-      <c r="B1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" t="s">
         <v>27</v>
-      </c>
-      <c r="B2" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -663,36 +783,36 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s">
         <v>30</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" t="s">
         <v>31</v>
-      </c>
-      <c r="C1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>37</v>
-      </c>
       <c r="E2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
